--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/10/seed3/result_data_KNN.xlsx
@@ -559,7 +559,7 @@
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>16.182</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="8">
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.428</v>
+        <v>6.188000000000001</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.618</v>
+        <v>5.315</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.054</v>
+        <v>16.361</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.67</v>
+        <v>5.154</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.234</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="21">
@@ -933,7 +933,7 @@
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>16.94</v>
+        <v>17.035</v>
       </c>
     </row>
     <row r="30">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.096</v>
+        <v>16.37</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.75</v>
+        <v>16.426</v>
       </c>
     </row>
     <row r="32">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.068000000000001</v>
+        <v>8.73</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.706</v>
+        <v>16.627</v>
       </c>
     </row>
     <row r="41">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.621</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,7 +1587,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.578</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.69</v>
+        <v>17.272</v>
       </c>
     </row>
     <row r="69">
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.484</v>
+        <v>16.558</v>
       </c>
     </row>
     <row r="77">
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.76</v>
+        <v>6.123</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.738000000000001</v>
+        <v>7.811</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1919,7 +1919,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.402</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="88">
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.526</v>
+        <v>16.241</v>
       </c>
     </row>
     <row r="89">
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.82</v>
+        <v>16.325</v>
       </c>
     </row>
     <row r="97">
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.15</v>
+        <v>16.299</v>
       </c>
     </row>
     <row r="99">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.422</v>
+        <v>16.716</v>
       </c>
     </row>
     <row r="102">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.39</v>
+        <v>16.64</v>
       </c>
     </row>
   </sheetData>
